--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="6630"/>
+    <workbookView windowWidth="25620" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="TestRuleSpecial" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>case_name</t>
   </si>
@@ -49,7 +50,7 @@
     <t>{"sn":"test","password":"D5BCF1D75F6C61A276B0701AC2933765"}</t>
   </si>
   <si>
-    <t>{"status":true,"code":200,"message":null,"data":{"sn":"test","name":"柴珍珍","indexUrl":null,"headUrl":null,"roles":[{"id":1,"name":"超级管理员","code":"000001"}],"initPassword":0},"otherData":{}}</t>
+    <t>柴珍珍</t>
   </si>
   <si>
     <t>test_user_login_password_wrong</t>
@@ -58,7 +59,42 @@
     <t>{"sn":"test","password":"1234567"}</t>
   </si>
   <si>
-    <t>{"status":false,"code":0,"message":"用户名或密码错误，请重新输入","data":null,"otherData":{}}</t>
+    <t>用户名或密码错误，请重新输入</t>
+  </si>
+  <si>
+    <t>test_rule_special_keyanshouru</t>
+  </si>
+  <si>
+    <t>http://172.16.170.49/supervise/api/audit/probable/list</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{
+"businessEndDate": "",
+"businessStartDate": "",
+"issue": "null",
+"keyword": "",
+"maxCreditMoney": "",
+"maxDebitMoney": "",
+"minCreditMoney": "",
+"minDebitMoney": "",
+"onlyNational": 0,
+"pgCt": 1,
+"pgSz": 10,
+"ruleCode": "bdce8b92-9b42-11ea-a16a-005056b6438b",
+"sortField": "",
+"sortType": "",
+"warnEndDate": "",
+"warnLevelId": "",
+"warnStartDate": "",
+"warnStatus": "",
+"warnTarget": "VOUCHER"
+}</t>
   </si>
 </sst>
 </file>
@@ -66,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -93,61 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,9 +142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,14 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,9 +173,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,7 +219,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,103 +287,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,73 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,17 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,26 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,9 +525,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,140 +592,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1037,7 +1076,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1070,44 +1109,106 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="99" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="33" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="46.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="86" customHeight="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25620" windowHeight="6600"/>
+    <workbookView windowWidth="25620" windowHeight="6600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>case_name</t>
   </si>
@@ -66,18 +66,12 @@
   </si>
   <si>
     <t>http://172.16.170.49/supervise/api/audit/probable/list</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>json</t>
   </si>
   <si>
     <t>{
 "businessEndDate": "",
 "businessStartDate": "",
-"issue": "null",
+"issue": "",
 "keyword": "",
 "maxCreditMoney": "",
 "maxDebitMoney": "",
@@ -102,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -129,21 +123,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,15 +213,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,84 +237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +249,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,37 +281,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,139 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,9 +471,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,50 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,6 +524,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +551,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1075,7 +1069,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1160,13 +1154,13 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="54.625" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
@@ -1202,13 +1196,13 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25620" windowHeight="6600" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 "minDebitMoney": "",
 "onlyNational": 0,
 "pgCt": 1,
-"pgSz": 10,
+"pgSz":1000,
 "ruleCode": "bdce8b92-9b42-11ea-a16a-005056b6438b",
 "sortField": "",
 "sortType": "",
@@ -96,8 +96,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -123,25 +123,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,7 +176,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,19 +191,43 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -183,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,43 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -249,22 +265,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,25 +281,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,151 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,44 +471,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +497,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -566,6 +557,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
